--- a/PRD-2017-G24/STW/受控文件/分析设计/软件需求规格说明书/需求优先级/总优先级表.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/软件需求规格说明书/需求优先级/总优先级表.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="342">
   <si>
-    <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员返回首页</t>
   </si>
   <si>
@@ -1121,7 +1117,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注：各用户类权重——教师1，学生1，管理员1，游客0.2</t>
+    <t>特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：优先级打分用UFD方法
+杨枨老师建议各用户类权重——教师1，学生1，管理员1，游客0.2
+该项目经理童威男建议各参数权重——相对收益2，相对损失1，相对成本1，相当风险0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1220,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1286,9 +1288,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1296,6 +1298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1640,7 +1645,7 @@
   <dimension ref="A1:J414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1666,8 +1671,8 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>341</v>
       </c>
       <c r="B2" s="27"/>
@@ -1682,7 +1687,7 @@
     </row>
     <row r="3" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
@@ -1703,39 +1708,39 @@
     </row>
     <row r="4" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>336</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -1767,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -1799,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -1831,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -1863,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -1895,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -1927,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4">
         <v>9</v>
@@ -1959,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -1991,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -2023,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4">
         <v>8</v>
@@ -2055,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4">
         <v>9</v>
@@ -2087,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -2119,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
@@ -2151,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>5</v>
@@ -2183,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>7</v>
@@ -2215,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
@@ -2247,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4">
         <v>9</v>
@@ -2279,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
         <v>9</v>
@@ -2311,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
@@ -2343,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>9</v>
@@ -2375,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
         <v>7</v>
@@ -2407,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <v>8</v>
@@ -2439,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
@@ -2471,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4">
         <v>9</v>
@@ -2503,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4">
         <v>9</v>
@@ -2535,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -2567,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4">
         <v>5</v>
@@ -2599,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
@@ -2631,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
@@ -2663,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -2695,7 +2700,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -2727,7 +2732,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
@@ -2759,7 +2764,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4">
         <v>7</v>
@@ -2791,7 +2796,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -2823,7 +2828,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
@@ -2855,7 +2860,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4">
         <v>5</v>
@@ -2887,7 +2892,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4">
         <v>4</v>
@@ -2919,7 +2924,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4">
         <v>4</v>
@@ -2951,7 +2956,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4">
         <v>3</v>
@@ -2983,7 +2988,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -3015,7 +3020,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -3047,7 +3052,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
@@ -3079,7 +3084,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
@@ -3111,7 +3116,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
@@ -3143,7 +3148,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
@@ -3175,7 +3180,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
@@ -3207,7 +3212,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -3239,7 +3244,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
@@ -3271,7 +3276,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="4">
         <v>3</v>
@@ -3303,7 +3308,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
@@ -3335,7 +3340,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4">
         <v>7</v>
@@ -3367,7 +3372,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="4">
         <v>9</v>
@@ -3399,7 +3404,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="4">
         <v>5</v>
@@ -3431,7 +3436,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="4">
         <v>9</v>
@@ -3463,7 +3468,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="4">
         <v>5</v>
@@ -3495,7 +3500,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="4">
         <v>5</v>
@@ -3527,7 +3532,7 @@
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="4">
         <v>5</v>
@@ -3559,7 +3564,7 @@
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
@@ -3591,7 +3596,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="4">
         <v>5</v>
@@ -3623,7 +3628,7 @@
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="4">
         <v>5</v>
@@ -3655,7 +3660,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="4">
         <v>5</v>
@@ -3687,7 +3692,7 @@
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3719,7 +3724,7 @@
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="4">
         <v>7</v>
@@ -3751,7 +3756,7 @@
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3">
         <v>9</v>
@@ -3783,7 +3788,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3">
         <v>8</v>
@@ -3815,7 +3820,7 @@
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="3">
         <v>2</v>
@@ -3847,7 +3852,7 @@
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="4">
         <v>2</v>
@@ -3879,7 +3884,7 @@
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="4">
         <v>2</v>
@@ -3911,7 +3916,7 @@
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="4">
         <v>2</v>
@@ -3943,7 +3948,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="4">
         <v>2</v>
@@ -3975,7 +3980,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3">
         <v>2</v>
@@ -4007,7 +4012,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4">
         <v>2</v>
@@ -4039,7 +4044,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4">
         <v>2</v>
@@ -4071,7 +4076,7 @@
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" s="4">
         <v>2</v>
@@ -4103,7 +4108,7 @@
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="4">
         <v>3</v>
@@ -4135,7 +4140,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="4">
         <v>3</v>
@@ -4167,7 +4172,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="4">
         <v>2</v>
@@ -4199,7 +4204,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="4">
         <v>2</v>
@@ -4231,7 +4236,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="4">
         <v>2</v>
@@ -4263,7 +4268,7 @@
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="4">
         <v>2</v>
@@ -4295,7 +4300,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" s="4">
         <v>2</v>
@@ -4327,7 +4332,7 @@
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B86" s="3">
         <v>3</v>
@@ -4359,7 +4364,7 @@
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B87" s="3">
         <v>3</v>
@@ -4391,7 +4396,7 @@
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
@@ -4423,7 +4428,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89" s="4">
         <v>3</v>
@@ -4455,7 +4460,7 @@
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B90" s="4">
         <v>3</v>
@@ -4487,7 +4492,7 @@
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B91" s="4">
         <v>3</v>
@@ -4519,7 +4524,7 @@
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92" s="4">
         <v>3</v>
@@ -4551,7 +4556,7 @@
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B93" s="4">
         <v>3</v>
@@ -4583,7 +4588,7 @@
     </row>
     <row r="94" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="4">
         <v>3</v>
@@ -4615,7 +4620,7 @@
     </row>
     <row r="95" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
@@ -4647,7 +4652,7 @@
     </row>
     <row r="96" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
@@ -4679,7 +4684,7 @@
     </row>
     <row r="97" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="4">
         <v>5</v>
@@ -4711,7 +4716,7 @@
     </row>
     <row r="98" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="4">
         <v>5</v>
@@ -4743,7 +4748,7 @@
     </row>
     <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" s="3">
         <v>5</v>
@@ -4775,7 +4780,7 @@
     </row>
     <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" s="4">
         <v>5</v>
@@ -4807,7 +4812,7 @@
     </row>
     <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="4">
         <v>5</v>
@@ -4839,7 +4844,7 @@
     </row>
     <row r="102" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4">
         <v>5</v>
@@ -4871,7 +4876,7 @@
     </row>
     <row r="103" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4">
         <v>5</v>
@@ -4903,7 +4908,7 @@
     </row>
     <row r="104" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4">
         <v>5</v>
@@ -4935,7 +4940,7 @@
     </row>
     <row r="105" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4">
         <v>5</v>
@@ -4967,7 +4972,7 @@
     </row>
     <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4">
         <v>5</v>
@@ -4999,7 +5004,7 @@
     </row>
     <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="4">
         <v>5</v>
@@ -5031,7 +5036,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="4">
         <v>5</v>
@@ -5063,7 +5068,7 @@
     </row>
     <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109" s="4">
         <v>5</v>
@@ -5095,7 +5100,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B110" s="3">
         <v>5</v>
@@ -5127,7 +5132,7 @@
     </row>
     <row r="111" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111" s="4">
         <v>5</v>
@@ -5159,7 +5164,7 @@
     </row>
     <row r="112" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="4">
         <v>5</v>
@@ -5191,7 +5196,7 @@
     </row>
     <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113" s="4">
         <v>5</v>
@@ -5223,7 +5228,7 @@
     </row>
     <row r="114" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" s="4">
         <v>5</v>
@@ -5255,7 +5260,7 @@
     </row>
     <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115" s="4">
         <v>5</v>
@@ -5287,7 +5292,7 @@
     </row>
     <row r="116" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B116" s="4">
         <v>5</v>
@@ -5319,7 +5324,7 @@
     </row>
     <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="4">
         <v>5</v>
@@ -5351,7 +5356,7 @@
     </row>
     <row r="118" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" s="3">
         <v>5</v>
@@ -5383,7 +5388,7 @@
     </row>
     <row r="119" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119" s="4">
         <v>5</v>
@@ -5415,7 +5420,7 @@
     </row>
     <row r="120" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="3">
         <v>5</v>
@@ -5447,7 +5452,7 @@
     </row>
     <row r="121" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" s="4">
         <v>5</v>
@@ -5479,7 +5484,7 @@
     </row>
     <row r="122" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="3">
         <v>5</v>
@@ -5511,7 +5516,7 @@
     </row>
     <row r="123" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123" s="4">
         <v>6</v>
@@ -5543,7 +5548,7 @@
     </row>
     <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124" s="4">
         <v>2</v>
@@ -5575,7 +5580,7 @@
     </row>
     <row r="125" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B125" s="4">
         <v>9</v>
@@ -5607,7 +5612,7 @@
     </row>
     <row r="126" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" s="4">
         <v>5</v>
@@ -5639,7 +5644,7 @@
     </row>
     <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B127" s="4">
         <v>5</v>
@@ -5671,7 +5676,7 @@
     </row>
     <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128" s="4">
         <v>9</v>
@@ -5703,7 +5708,7 @@
     </row>
     <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B129" s="3">
         <v>9</v>
@@ -5735,7 +5740,7 @@
     </row>
     <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" s="3">
         <v>6</v>
@@ -5767,7 +5772,7 @@
     </row>
     <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131" s="4">
         <v>8</v>
@@ -5799,7 +5804,7 @@
     </row>
     <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132" s="4">
         <v>8</v>
@@ -5831,7 +5836,7 @@
     </row>
     <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B133" s="4">
         <v>5</v>
@@ -5863,7 +5868,7 @@
     </row>
     <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B134" s="4">
         <v>7</v>
@@ -5895,7 +5900,7 @@
     </row>
     <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B135" s="3">
         <v>7</v>
@@ -5927,7 +5932,7 @@
     </row>
     <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B136" s="4">
         <v>7</v>
@@ -5959,7 +5964,7 @@
     </row>
     <row r="137" spans="1:10" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B137" s="4">
         <v>6</v>
@@ -5991,7 +5996,7 @@
     </row>
     <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B138" s="4">
         <v>7</v>
@@ -6023,7 +6028,7 @@
     </row>
     <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B139" s="4">
         <v>6</v>
@@ -6055,7 +6060,7 @@
     </row>
     <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B140" s="4">
         <v>8</v>
@@ -6087,7 +6092,7 @@
     </row>
     <row r="141" spans="1:10" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141" s="4">
         <v>6</v>
@@ -6119,7 +6124,7 @@
     </row>
     <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="8">
         <v>5</v>
@@ -6151,7 +6156,7 @@
     </row>
     <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143" s="8">
         <v>4</v>
@@ -6183,7 +6188,7 @@
     </row>
     <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144" s="20">
         <v>4</v>
@@ -6215,7 +6220,7 @@
     </row>
     <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145" s="8">
         <v>4</v>
@@ -6247,7 +6252,7 @@
     </row>
     <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146" s="20">
         <v>5</v>
@@ -6279,7 +6284,7 @@
     </row>
     <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="20">
         <v>4</v>
@@ -6311,7 +6316,7 @@
     </row>
     <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="8">
         <v>4</v>
@@ -6343,7 +6348,7 @@
     </row>
     <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="20">
         <v>4</v>
@@ -6375,7 +6380,7 @@
     </row>
     <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B150" s="20">
         <v>4</v>
@@ -6407,7 +6412,7 @@
     </row>
     <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="20">
         <v>4</v>
@@ -6439,7 +6444,7 @@
     </row>
     <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B152" s="8">
         <v>5</v>
@@ -6471,7 +6476,7 @@
     </row>
     <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B153" s="20">
         <v>5</v>
@@ -6503,7 +6508,7 @@
     </row>
     <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B154" s="20">
         <v>5</v>
@@ -6535,7 +6540,7 @@
     </row>
     <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B155" s="8">
         <v>6</v>
@@ -6567,7 +6572,7 @@
     </row>
     <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="8">
         <v>5</v>
@@ -6599,7 +6604,7 @@
     </row>
     <row r="157" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B157" s="20">
         <v>4</v>
@@ -6631,7 +6636,7 @@
     </row>
     <row r="158" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B158" s="8">
         <v>6</v>
@@ -6663,7 +6668,7 @@
     </row>
     <row r="159" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B159" s="20">
         <v>5</v>
@@ -6695,7 +6700,7 @@
     </row>
     <row r="160" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B160" s="20">
         <v>6</v>
@@ -6727,7 +6732,7 @@
     </row>
     <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B161" s="20">
         <v>6</v>
@@ -6759,7 +6764,7 @@
     </row>
     <row r="162" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B162" s="10">
         <v>4</v>
@@ -6791,7 +6796,7 @@
     </row>
     <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B163" s="10">
         <v>4</v>
@@ -6823,7 +6828,7 @@
     </row>
     <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B164" s="12">
         <v>5</v>
@@ -6855,7 +6860,7 @@
     </row>
     <row r="165" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B165" s="20">
         <v>5</v>
@@ -6887,7 +6892,7 @@
     </row>
     <row r="166" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B166" s="12">
         <v>5</v>
@@ -6919,7 +6924,7 @@
     </row>
     <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B167" s="12">
         <v>4</v>
@@ -6951,7 +6956,7 @@
     </row>
     <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B168" s="12">
         <v>4</v>
@@ -6983,7 +6988,7 @@
     </row>
     <row r="169" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B169" s="20">
         <v>4</v>
@@ -7015,7 +7020,7 @@
     </row>
     <row r="170" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B170" s="12">
         <v>4</v>
@@ -7047,7 +7052,7 @@
     </row>
     <row r="171" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B171" s="12">
         <v>4</v>
@@ -7079,7 +7084,7 @@
     </row>
     <row r="172" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B172" s="12">
         <v>5</v>
@@ -7111,7 +7116,7 @@
     </row>
     <row r="173" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B173" s="12">
         <v>5</v>
@@ -7143,7 +7148,7 @@
     </row>
     <row r="174" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B174" s="12">
         <v>5</v>
@@ -7175,7 +7180,7 @@
     </row>
     <row r="175" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B175" s="12">
         <v>4</v>
@@ -7207,7 +7212,7 @@
     </row>
     <row r="176" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B176" s="12">
         <v>5</v>
@@ -7239,7 +7244,7 @@
     </row>
     <row r="177" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B177" s="12">
         <v>5</v>
@@ -7271,7 +7276,7 @@
     </row>
     <row r="178" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B178" s="12">
         <v>5</v>
@@ -7303,7 +7308,7 @@
     </row>
     <row r="179" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B179" s="12">
         <v>6</v>
@@ -7335,7 +7340,7 @@
     </row>
     <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B180" s="12">
         <v>5</v>
@@ -7367,7 +7372,7 @@
     </row>
     <row r="181" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B181" s="20">
         <v>5</v>
@@ -7399,7 +7404,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B182" s="20">
         <v>6</v>
@@ -7431,7 +7436,7 @@
     </row>
     <row r="183" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B183" s="12">
         <v>5</v>
@@ -7463,7 +7468,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B184" s="12">
         <v>4</v>
@@ -7495,7 +7500,7 @@
     </row>
     <row r="185" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
@@ -7527,7 +7532,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B186" s="20">
         <v>5</v>
@@ -7559,7 +7564,7 @@
     </row>
     <row r="187" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187" s="20">
         <v>5</v>
@@ -7591,7 +7596,7 @@
     </row>
     <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="20">
         <v>6</v>
@@ -7623,7 +7628,7 @@
     </row>
     <row r="189" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B189" s="20">
         <v>5</v>
@@ -7655,7 +7660,7 @@
     </row>
     <row r="190" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B190" s="12">
         <v>5</v>
@@ -7687,7 +7692,7 @@
     </row>
     <row r="191" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B191" s="20">
         <v>5</v>
@@ -7719,7 +7724,7 @@
     </row>
     <row r="192" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B192" s="20">
         <v>5</v>
@@ -7751,7 +7756,7 @@
     </row>
     <row r="193" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B193" s="20">
         <v>7</v>
@@ -7783,7 +7788,7 @@
     </row>
     <row r="194" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B194" s="20">
         <v>5</v>
@@ -7815,7 +7820,7 @@
     </row>
     <row r="195" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B195" s="20">
         <v>5</v>
@@ -7847,7 +7852,7 @@
     </row>
     <row r="196" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B196" s="20">
         <v>5</v>
@@ -7879,7 +7884,7 @@
     </row>
     <row r="197" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B197" s="14">
         <v>5</v>
@@ -7911,7 +7916,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B198" s="14">
         <v>6</v>
@@ -7943,7 +7948,7 @@
     </row>
     <row r="199" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B199" s="14">
         <v>5</v>
@@ -7975,7 +7980,7 @@
     </row>
     <row r="200" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B200" s="14">
         <v>5</v>
@@ -8007,7 +8012,7 @@
     </row>
     <row r="201" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B201" s="14">
         <v>6</v>
@@ -8039,7 +8044,7 @@
     </row>
     <row r="202" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B202" s="14">
         <v>5</v>
@@ -8071,7 +8076,7 @@
     </row>
     <row r="203" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B203" s="14">
         <v>6</v>
@@ -8103,7 +8108,7 @@
     </row>
     <row r="204" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B204" s="14">
         <v>5</v>
@@ -8135,7 +8140,7 @@
     </row>
     <row r="205" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B205" s="14">
         <v>5</v>
@@ -8167,7 +8172,7 @@
     </row>
     <row r="206" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B206" s="14">
         <v>5</v>
@@ -8199,7 +8204,7 @@
     </row>
     <row r="207" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B207" s="14">
         <v>5</v>
@@ -8231,7 +8236,7 @@
     </row>
     <row r="208" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B208" s="14">
         <v>5</v>
@@ -8263,7 +8268,7 @@
     </row>
     <row r="209" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B209" s="14">
         <v>5</v>
@@ -8295,7 +8300,7 @@
     </row>
     <row r="210" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B210" s="14">
         <v>4</v>
@@ -8327,7 +8332,7 @@
     </row>
     <row r="211" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B211" s="14">
         <v>5</v>
@@ -8359,7 +8364,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B212" s="14">
         <v>5</v>
@@ -8391,7 +8396,7 @@
     </row>
     <row r="213" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B213" s="14">
         <v>5</v>
@@ -8423,7 +8428,7 @@
     </row>
     <row r="214" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B214" s="14">
         <v>6</v>
@@ -8455,7 +8460,7 @@
     </row>
     <row r="215" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B215" s="14">
         <v>5</v>
@@ -8487,7 +8492,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B216" s="14">
         <v>5</v>
@@ -8519,7 +8524,7 @@
     </row>
     <row r="217" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B217" s="14">
         <v>6</v>
@@ -8551,7 +8556,7 @@
     </row>
     <row r="218" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B218" s="20">
         <v>5</v>
@@ -8583,7 +8588,7 @@
     </row>
     <row r="219" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B219" s="20">
         <v>4</v>
@@ -8615,7 +8620,7 @@
     </row>
     <row r="220" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B220" s="14">
         <v>4</v>
@@ -8647,7 +8652,7 @@
     </row>
     <row r="221" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B221" s="14">
         <v>4</v>
@@ -8679,7 +8684,7 @@
     </row>
     <row r="222" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B222" s="14">
         <v>4</v>
@@ -8711,7 +8716,7 @@
     </row>
     <row r="223" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B223" s="14">
         <v>5</v>
@@ -8743,7 +8748,7 @@
     </row>
     <row r="224" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B224" s="14">
         <v>4</v>
@@ -8775,7 +8780,7 @@
     </row>
     <row r="225" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B225" s="14">
         <v>4</v>
@@ -8807,7 +8812,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B226" s="14">
         <v>4</v>
@@ -8839,7 +8844,7 @@
     </row>
     <row r="227" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B227" s="14">
         <v>4</v>
@@ -8871,7 +8876,7 @@
     </row>
     <row r="228" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B228" s="14">
         <v>4</v>
@@ -8903,7 +8908,7 @@
     </row>
     <row r="229" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B229" s="14">
         <v>5</v>
@@ -8935,7 +8940,7 @@
     </row>
     <row r="230" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B230" s="14">
         <v>5</v>
@@ -8967,7 +8972,7 @@
     </row>
     <row r="231" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B231" s="16">
         <v>5</v>
@@ -8999,7 +9004,7 @@
     </row>
     <row r="232" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B232" s="16">
         <v>4</v>
@@ -9031,7 +9036,7 @@
     </row>
     <row r="233" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B233" s="16">
         <v>5</v>
@@ -9063,7 +9068,7 @@
     </row>
     <row r="234" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B234" s="16">
         <v>6</v>
@@ -9095,7 +9100,7 @@
     </row>
     <row r="235" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B235" s="20">
         <v>5</v>
@@ -9127,7 +9132,7 @@
     </row>
     <row r="236" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B236" s="20">
         <v>5</v>
@@ -9159,7 +9164,7 @@
     </row>
     <row r="237" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B237" s="16">
         <v>6</v>
@@ -9191,7 +9196,7 @@
     </row>
     <row r="238" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B238" s="16">
         <v>5</v>
@@ -9223,7 +9228,7 @@
     </row>
     <row r="239" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B239" s="16">
         <v>4</v>
@@ -9255,7 +9260,7 @@
     </row>
     <row r="240" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B240" s="16">
         <v>5</v>
@@ -9287,7 +9292,7 @@
     </row>
     <row r="241" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B241" s="20">
         <v>6</v>
@@ -9319,7 +9324,7 @@
     </row>
     <row r="242" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B242" s="20">
         <v>5</v>
@@ -9351,7 +9356,7 @@
     </row>
     <row r="243" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B243" s="16">
         <v>5</v>
@@ -9383,7 +9388,7 @@
     </row>
     <row r="244" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B244" s="20">
         <v>5</v>
@@ -9415,7 +9420,7 @@
     </row>
     <row r="245" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B245" s="20">
         <v>5</v>
@@ -9447,7 +9452,7 @@
     </row>
     <row r="246" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B246" s="18">
         <v>4</v>
@@ -9479,7 +9484,7 @@
     </row>
     <row r="247" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B247" s="20">
         <v>5</v>
@@ -9511,7 +9516,7 @@
     </row>
     <row r="248" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B248" s="20">
         <v>5</v>
@@ -9543,7 +9548,7 @@
     </row>
     <row r="249" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B249" s="20">
         <v>5</v>
@@ -9575,7 +9580,7 @@
     </row>
     <row r="250" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B250" s="18">
         <v>6</v>
@@ -9607,7 +9612,7 @@
     </row>
     <row r="251" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B251" s="18">
         <v>5</v>
@@ -9639,7 +9644,7 @@
     </row>
     <row r="252" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B252" s="20">
         <v>5</v>
@@ -9671,7 +9676,7 @@
     </row>
     <row r="253" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B253" s="18">
         <v>6</v>
@@ -9703,7 +9708,7 @@
     </row>
     <row r="254" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B254" s="18">
         <v>5</v>
@@ -9735,7 +9740,7 @@
     </row>
     <row r="255" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B255" s="18">
         <v>4</v>
@@ -9767,7 +9772,7 @@
     </row>
     <row r="256" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B256" s="18">
         <v>5</v>
@@ -9799,7 +9804,7 @@
     </row>
     <row r="257" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B257" s="18">
         <v>6</v>
@@ -9831,7 +9836,7 @@
     </row>
     <row r="258" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B258" s="18">
         <v>5</v>
@@ -9863,7 +9868,7 @@
     </row>
     <row r="259" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B259" s="18">
         <v>5</v>
@@ -9895,7 +9900,7 @@
     </row>
     <row r="260" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B260" s="18">
         <v>6</v>
@@ -9927,7 +9932,7 @@
     </row>
     <row r="261" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B261" s="18">
         <v>5</v>
@@ -9959,7 +9964,7 @@
     </row>
     <row r="262" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B262" s="18">
         <v>6</v>
@@ -9991,7 +9996,7 @@
     </row>
     <row r="263" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B263" s="18">
         <v>5</v>
@@ -10023,7 +10028,7 @@
     </row>
     <row r="264" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B264" s="18">
         <v>5</v>
@@ -10055,7 +10060,7 @@
     </row>
     <row r="265" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B265" s="18">
         <v>5</v>
@@ -10087,7 +10092,7 @@
     </row>
     <row r="266" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B266" s="20">
         <v>5</v>
@@ -10119,7 +10124,7 @@
     </row>
     <row r="267" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B267" s="20">
         <v>5</v>
@@ -10151,7 +10156,7 @@
     </row>
     <row r="268" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B268" s="18">
         <v>5</v>
@@ -10183,7 +10188,7 @@
     </row>
     <row r="269" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B269" s="20">
         <v>4</v>
@@ -10215,7 +10220,7 @@
     </row>
     <row r="270" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B270" s="20">
         <v>5</v>
@@ -10247,7 +10252,7 @@
     </row>
     <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B271" s="18">
         <v>5</v>
@@ -10279,7 +10284,7 @@
     </row>
     <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B272" s="20">
         <v>5</v>
@@ -10311,7 +10316,7 @@
     </row>
     <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B273" s="18">
         <v>6</v>
@@ -10343,7 +10348,7 @@
     </row>
     <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B274" s="18">
         <v>5</v>
@@ -10375,7 +10380,7 @@
     </row>
     <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B275" s="20">
         <v>5</v>
@@ -10407,7 +10412,7 @@
     </row>
     <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B276" s="20">
         <v>6</v>
@@ -10439,7 +10444,7 @@
     </row>
     <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B277" s="18">
         <v>4</v>
@@ -10471,7 +10476,7 @@
     </row>
     <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B278" s="20">
         <v>4</v>
@@ -10503,7 +10508,7 @@
     </row>
     <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B279" s="20">
         <v>5</v>
@@ -10535,7 +10540,7 @@
     </row>
     <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B280" s="18">
         <v>6</v>
@@ -10567,7 +10572,7 @@
     </row>
     <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B281" s="18">
         <v>5</v>
@@ -10599,7 +10604,7 @@
     </row>
     <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B282" s="18">
         <v>5</v>
@@ -10631,7 +10636,7 @@
     </row>
     <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B283" s="18">
         <v>6</v>
@@ -10663,7 +10668,7 @@
     </row>
     <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B284" s="18">
         <v>5</v>
@@ -10695,7 +10700,7 @@
     </row>
     <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B285" s="20">
         <v>6</v>
@@ -10727,7 +10732,7 @@
     </row>
     <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B286" s="20">
         <v>5</v>
@@ -10759,7 +10764,7 @@
     </row>
     <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B287" s="18">
         <v>5</v>
@@ -10791,7 +10796,7 @@
     </row>
     <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B288" s="18">
         <v>5</v>
@@ -10823,7 +10828,7 @@
     </row>
     <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B289" s="18">
         <v>5</v>
@@ -10855,7 +10860,7 @@
     </row>
     <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B290" s="18">
         <v>5</v>
@@ -10887,7 +10892,7 @@
     </row>
     <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B291" s="18">
         <v>5</v>
@@ -10919,7 +10924,7 @@
     </row>
     <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B292" s="18">
         <v>4</v>
@@ -10951,7 +10956,7 @@
     </row>
     <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B293" s="18">
         <v>5</v>
@@ -10983,7 +10988,7 @@
     </row>
     <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B294" s="18">
         <v>5</v>
@@ -11015,7 +11020,7 @@
     </row>
     <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B295" s="18">
         <v>5</v>
@@ -11047,7 +11052,7 @@
     </row>
     <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B296" s="18">
         <v>6</v>
@@ -11079,7 +11084,7 @@
     </row>
     <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B297" s="18">
         <v>5</v>
@@ -11111,7 +11116,7 @@
     </row>
     <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B298" s="18">
         <v>5</v>
@@ -11143,7 +11148,7 @@
     </row>
     <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B299" s="20">
         <v>7</v>
@@ -11175,7 +11180,7 @@
     </row>
     <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B300" s="20">
         <v>7</v>
@@ -11207,7 +11212,7 @@
     </row>
     <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B301" s="20">
         <v>7</v>
@@ -11239,7 +11244,7 @@
     </row>
     <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B302" s="20">
         <v>2</v>
@@ -11271,7 +11276,7 @@
     </row>
     <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B303" s="20">
         <v>7</v>
@@ -11303,7 +11308,7 @@
     </row>
     <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B304" s="20">
         <v>2</v>
@@ -11335,7 +11340,7 @@
     </row>
     <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B305" s="20">
         <v>7</v>
@@ -11367,7 +11372,7 @@
     </row>
     <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B306" s="20">
         <v>7</v>
@@ -11399,7 +11404,7 @@
     </row>
     <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B307" s="20">
         <v>7</v>
@@ -11431,7 +11436,7 @@
     </row>
     <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B308" s="20">
         <v>2</v>
@@ -11463,7 +11468,7 @@
     </row>
     <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B309" s="20">
         <v>7</v>
@@ -11495,7 +11500,7 @@
     </row>
     <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B310" s="20">
         <v>7</v>
@@ -11527,7 +11532,7 @@
     </row>
     <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B311" s="20">
         <v>7</v>
@@ -11559,7 +11564,7 @@
     </row>
     <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B312" s="20">
         <v>7</v>
@@ -11591,7 +11596,7 @@
     </row>
     <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B313" s="20">
         <v>7</v>
@@ -11623,7 +11628,7 @@
     </row>
     <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B314" s="20">
         <v>2</v>
@@ -11655,7 +11660,7 @@
     </row>
     <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B315" s="20">
         <v>7</v>
@@ -11687,7 +11692,7 @@
     </row>
     <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B316" s="20">
         <v>7</v>
@@ -11719,7 +11724,7 @@
     </row>
     <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B317" s="20">
         <v>7</v>
@@ -11751,7 +11756,7 @@
     </row>
     <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B318" s="20">
         <v>7</v>
@@ -11783,7 +11788,7 @@
     </row>
     <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B319" s="20">
         <v>2</v>
@@ -11815,7 +11820,7 @@
     </row>
     <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B320" s="20">
         <v>7</v>
@@ -11847,7 +11852,7 @@
     </row>
     <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B321" s="20">
         <v>7</v>
@@ -11879,7 +11884,7 @@
     </row>
     <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B322" s="20">
         <v>7</v>
@@ -11911,7 +11916,7 @@
     </row>
     <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B323" s="20">
         <v>2</v>
@@ -11943,7 +11948,7 @@
     </row>
     <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B324" s="20">
         <v>2</v>
@@ -11975,7 +11980,7 @@
     </row>
     <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B325" s="20">
         <v>2</v>
@@ -12007,7 +12012,7 @@
     </row>
     <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B326" s="20">
         <v>2</v>
@@ -12039,7 +12044,7 @@
     </row>
     <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B327" s="20">
         <v>2</v>
@@ -12071,7 +12076,7 @@
     </row>
     <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B328" s="20">
         <v>2</v>
@@ -12103,7 +12108,7 @@
     </row>
     <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B329" s="20">
         <v>2</v>
@@ -12135,7 +12140,7 @@
     </row>
     <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B330" s="20">
         <v>2</v>
@@ -12167,7 +12172,7 @@
     </row>
     <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B331" s="20">
         <v>2</v>
@@ -12199,7 +12204,7 @@
     </row>
     <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B332" s="20">
         <v>2</v>
@@ -12231,7 +12236,7 @@
     </row>
     <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B333" s="20">
         <v>7</v>
@@ -12263,7 +12268,7 @@
     </row>
     <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B334" s="20">
         <v>7</v>
@@ -12295,7 +12300,7 @@
     </row>
     <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B335" s="20">
         <v>7</v>
@@ -12327,7 +12332,7 @@
     </row>
     <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B336" s="20">
         <v>7</v>
@@ -12359,7 +12364,7 @@
     </row>
     <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B337" s="20">
         <v>2</v>
@@ -12391,7 +12396,7 @@
     </row>
     <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B338" s="20">
         <v>7</v>
@@ -12423,7 +12428,7 @@
     </row>
     <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B339" s="20">
         <v>7</v>
@@ -12455,7 +12460,7 @@
     </row>
     <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B340" s="20">
         <v>7</v>
@@ -12487,7 +12492,7 @@
     </row>
     <row r="341" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B341" s="20">
         <v>2</v>
@@ -12519,7 +12524,7 @@
     </row>
     <row r="342" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B342" s="20">
         <v>7</v>
@@ -12551,7 +12556,7 @@
     </row>
     <row r="343" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B343" s="20">
         <v>7</v>
@@ -12583,7 +12588,7 @@
     </row>
     <row r="344" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B344" s="20">
         <v>7</v>
@@ -12615,7 +12620,7 @@
     </row>
     <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B345" s="20">
         <v>7</v>
@@ -12647,7 +12652,7 @@
     </row>
     <row r="346" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B346" s="20">
         <v>7</v>
@@ -12679,7 +12684,7 @@
     </row>
     <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B347" s="20">
         <v>7</v>
@@ -12711,7 +12716,7 @@
     </row>
     <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B348" s="20">
         <v>7</v>
@@ -12743,7 +12748,7 @@
     </row>
     <row r="349" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B349" s="20">
         <v>2</v>
@@ -12775,7 +12780,7 @@
     </row>
     <row r="350" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B350" s="20">
         <v>7</v>
@@ -12807,7 +12812,7 @@
     </row>
     <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B351" s="20">
         <v>7</v>
@@ -12839,7 +12844,7 @@
     </row>
     <row r="352" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B352" s="20">
         <v>2</v>
@@ -12871,7 +12876,7 @@
     </row>
     <row r="353" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B353" s="20">
         <v>7</v>
@@ -12903,7 +12908,7 @@
     </row>
     <row r="354" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B354" s="20">
         <v>7</v>
@@ -12935,7 +12940,7 @@
     </row>
     <row r="355" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B355" s="20">
         <v>7</v>
@@ -12967,7 +12972,7 @@
     </row>
     <row r="356" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B356" s="20">
         <v>7</v>
@@ -12999,7 +13004,7 @@
     </row>
     <row r="357" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B357" s="20">
         <v>7</v>
@@ -13031,7 +13036,7 @@
     </row>
     <row r="358" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B358" s="20">
         <v>2</v>
@@ -13063,7 +13068,7 @@
     </row>
     <row r="359" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B359" s="20">
         <v>2</v>
@@ -13095,7 +13100,7 @@
     </row>
     <row r="360" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B360" s="20">
         <v>7</v>
@@ -13127,7 +13132,7 @@
     </row>
     <row r="361" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B361" s="20">
         <v>7</v>
@@ -13159,7 +13164,7 @@
     </row>
     <row r="362" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B362" s="20">
         <v>2</v>
@@ -13191,7 +13196,7 @@
     </row>
     <row r="363" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B363" s="20">
         <v>2</v>
@@ -13223,7 +13228,7 @@
     </row>
     <row r="364" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B364" s="20">
         <v>7</v>
@@ -13255,7 +13260,7 @@
     </row>
     <row r="365" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B365" s="20">
         <v>7</v>
@@ -13287,7 +13292,7 @@
     </row>
     <row r="366" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B366" s="20">
         <v>7</v>
@@ -13319,7 +13324,7 @@
     </row>
     <row r="367" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B367" s="20">
         <v>2</v>
@@ -13351,7 +13356,7 @@
     </row>
     <row r="368" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B368" s="20">
         <v>7</v>
@@ -13383,7 +13388,7 @@
     </row>
     <row r="369" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B369" s="20">
         <v>2</v>
@@ -13415,7 +13420,7 @@
     </row>
     <row r="370" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B370" s="20">
         <v>7</v>
@@ -13447,7 +13452,7 @@
     </row>
     <row r="371" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B371" s="20">
         <v>7</v>
@@ -13479,7 +13484,7 @@
     </row>
     <row r="372" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B372" s="20">
         <v>7</v>
@@ -13511,7 +13516,7 @@
     </row>
     <row r="373" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B373" s="20">
         <v>2</v>
@@ -13543,7 +13548,7 @@
     </row>
     <row r="374" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B374" s="20">
         <v>2</v>
@@ -13575,7 +13580,7 @@
     </row>
     <row r="375" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B375" s="20">
         <v>7</v>
@@ -13607,7 +13612,7 @@
     </row>
     <row r="376" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B376" s="20">
         <v>2</v>
@@ -13639,7 +13644,7 @@
     </row>
     <row r="377" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B377" s="20">
         <v>2</v>
@@ -13671,7 +13676,7 @@
     </row>
     <row r="378" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B378" s="20">
         <v>2</v>
@@ -13703,7 +13708,7 @@
     </row>
     <row r="379" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B379" s="20">
         <v>2</v>
@@ -13735,7 +13740,7 @@
     </row>
     <row r="380" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B380" s="20">
         <v>2</v>
@@ -13767,7 +13772,7 @@
     </row>
     <row r="381" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B381" s="20">
         <v>2</v>
@@ -13799,7 +13804,7 @@
     </row>
     <row r="382" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B382" s="20">
         <v>2</v>
@@ -13831,7 +13836,7 @@
     </row>
     <row r="383" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B383" s="20">
         <v>2</v>
@@ -13863,7 +13868,7 @@
     </row>
     <row r="384" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B384" s="20">
         <v>2</v>
@@ -13895,7 +13900,7 @@
     </row>
     <row r="385" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B385" s="20">
         <v>2</v>
@@ -13927,7 +13932,7 @@
     </row>
     <row r="386" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B386" s="20">
         <v>7</v>
@@ -13959,7 +13964,7 @@
     </row>
     <row r="387" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B387" s="20">
         <v>7</v>
@@ -13991,7 +13996,7 @@
     </row>
     <row r="388" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B388" s="20">
         <v>7</v>
@@ -14023,7 +14028,7 @@
     </row>
     <row r="389" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B389" s="20">
         <v>7</v>
@@ -14055,7 +14060,7 @@
     </row>
     <row r="390" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B390" s="20">
         <v>7</v>
@@ -14087,7 +14092,7 @@
     </row>
     <row r="391" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B391" s="20">
         <v>7</v>
@@ -14119,7 +14124,7 @@
     </row>
     <row r="392" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B392" s="20">
         <v>7</v>
@@ -14151,7 +14156,7 @@
     </row>
     <row r="393" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B393" s="20">
         <v>2</v>
@@ -14183,7 +14188,7 @@
     </row>
     <row r="394" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B394" s="20">
         <v>2</v>
@@ -14215,7 +14220,7 @@
     </row>
     <row r="395" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B395" s="20">
         <v>2</v>
@@ -14247,7 +14252,7 @@
     </row>
     <row r="396" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B396" s="20">
         <v>7</v>
@@ -14279,7 +14284,7 @@
     </row>
     <row r="397" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B397" s="6">
         <v>9</v>
@@ -14311,7 +14316,7 @@
     </row>
     <row r="398" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B398" s="6">
         <v>8</v>
@@ -14343,7 +14348,7 @@
     </row>
     <row r="399" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B399" s="20">
         <v>7</v>
@@ -14375,7 +14380,7 @@
     </row>
     <row r="400" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B400" s="20">
         <v>8</v>
@@ -14407,7 +14412,7 @@
     </row>
     <row r="401" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B401" s="6">
         <v>5</v>
@@ -14439,7 +14444,7 @@
     </row>
     <row r="402" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B402" s="20">
         <v>6</v>
@@ -14471,7 +14476,7 @@
     </row>
     <row r="403" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B403" s="6">
         <v>8</v>
@@ -14503,7 +14508,7 @@
     </row>
     <row r="404" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B404" s="6">
         <v>9</v>
@@ -14535,7 +14540,7 @@
     </row>
     <row r="405" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B405" s="6">
         <v>8</v>
@@ -14567,7 +14572,7 @@
     </row>
     <row r="406" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B406" s="6">
         <v>9</v>
@@ -14599,7 +14604,7 @@
     </row>
     <row r="407" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B407" s="6">
         <v>8</v>
@@ -14631,7 +14636,7 @@
     </row>
     <row r="408" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B408" s="6">
         <v>8</v>
@@ -14663,7 +14668,7 @@
     </row>
     <row r="409" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B409" s="20">
         <v>8</v>
@@ -14695,7 +14700,7 @@
     </row>
     <row r="410" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B410" s="20">
         <v>7</v>
@@ -14727,7 +14732,7 @@
     </row>
     <row r="411" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B411" s="20">
         <v>6</v>
@@ -14759,7 +14764,7 @@
     </row>
     <row r="412" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B412" s="6">
         <v>4</v>
@@ -14791,7 +14796,7 @@
     </row>
     <row r="413" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B413" s="6">
         <v>8</v>
@@ -14823,7 +14828,7 @@
     </row>
     <row r="414" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B414" s="22">
         <v>2061</v>

--- a/PRD-2017-G24/STW/受控文件/分析设计/软件需求规格说明书/需求优先级/总优先级表.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/软件需求规格说明书/需求优先级/总优先级表.xlsx
@@ -1121,7 +1121,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注：优先级打分用UFD方法
+    <t>注：优先级打分用QFD方法
 杨枨老师建议各用户类权重——教师1，学生1，管理员1，游客0.2
 该项目经理童威男建议各参数权重——相对收益2，相对损失1，相对成本1，相当风险0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1297,10 +1297,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1645,7 +1645,7 @@
   <dimension ref="A1:J414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1672,18 +1672,18 @@
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
